--- a/iselUssSyncV2/OutputWSL/20220428_1218_D50L474W90Q25.0U0.32H100G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1218_D50L474W90Q25.0U0.32H100G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>101.02646825396828</v>
+        <v>101.02739902098931</v>
       </c>
       <c r="F2" s="0">
-        <v>101.40801587301594</v>
+        <v>101.40894664003677</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>101.60452380952374</v>
+        <v>101.60679901779734</v>
       </c>
       <c r="F3" s="0">
-        <v>103.06583333333332</v>
+        <v>103.06810854160678</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>101.4392857142857</v>
+        <v>101.44203664792555</v>
       </c>
       <c r="F4" s="0">
-        <v>104.90329365079373</v>
+        <v>104.90604458443343</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>100.88972222222225</v>
+        <v>100.89252831242609</v>
       </c>
       <c r="F5" s="0">
-        <v>105.08027777777771</v>
+        <v>105.08308386798168</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>100.09587301587291</v>
+        <v>100.09872736807067</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>98.605634920634884</v>
+        <v>98.608530640255694</v>
       </c>
       <c r="F7" s="0">
-        <v>104.3844444444445</v>
+        <v>104.38734016406535</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>96.149761904761917</v>
+        <v>96.152692097235303</v>
       </c>
       <c r="F8" s="0">
-        <v>100.60988095238091</v>
+        <v>100.61281114485443</v>
       </c>
     </row>
     <row r="9">
@@ -260,10 +260,10 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>95.246666666666684</v>
+        <v>95.249608717801394</v>
       </c>
       <c r="F9" s="0">
-        <v>97.513849206349192</v>
+        <v>97.516791257483916</v>
       </c>
     </row>
     <row r="10">
@@ -280,10 +280,10 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>93.958293650793664</v>
+        <v>93.961246457458415</v>
       </c>
       <c r="F10" s="0">
-        <v>93.173293650793653</v>
+        <v>93.176246457458362</v>
       </c>
     </row>
     <row r="11">
@@ -300,10 +300,10 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>93.367968127490016</v>
+        <v>93.37093058655347</v>
       </c>
       <c r="F11" s="0">
-        <v>89.724183266932286</v>
+        <v>89.727145725995769</v>
       </c>
     </row>
     <row r="12">
@@ -320,10 +320,10 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>93.091190476190505</v>
+        <v>93.094157347779117</v>
       </c>
       <c r="F12" s="0">
-        <v>88.572261904761888</v>
+        <v>88.575228776350528</v>
       </c>
     </row>
     <row r="13">
@@ -340,10 +340,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>93.286892430278854</v>
+        <v>93.289863438609757</v>
       </c>
       <c r="F13" s="0">
-        <v>86.79107569721117</v>
+        <v>86.794046705542115</v>
       </c>
     </row>
     <row r="14">
@@ -360,10 +360,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>93.1394047619047</v>
+        <v>93.142379631195169</v>
       </c>
       <c r="F14" s="0">
-        <v>87.790555555555557</v>
+        <v>87.793530424845997</v>
       </c>
     </row>
     <row r="15">
@@ -380,10 +380,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>93.131468253968208</v>
+        <v>93.134446708435334</v>
       </c>
       <c r="F15" s="0">
-        <v>89.703174603174588</v>
+        <v>89.706153057641728</v>
       </c>
     </row>
     <row r="16">
@@ -400,10 +400,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>94.084920634920664</v>
+        <v>94.08790543239266</v>
       </c>
       <c r="F16" s="0">
-        <v>94.589801587301565</v>
+        <v>94.592786384773561</v>
       </c>
     </row>
     <row r="17">
@@ -420,10 +420,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>95.350912698412714</v>
+        <v>95.353902735758339</v>
       </c>
       <c r="F17" s="0">
-        <v>98.144801587301586</v>
+        <v>98.147791624647169</v>
       </c>
     </row>
     <row r="18">
@@ -440,10 +440,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>96.71019920318723</v>
+        <v>96.713193377275203</v>
       </c>
       <c r="F18" s="0">
-        <v>98.927131474103575</v>
+        <v>98.93012564819152</v>
       </c>
     </row>
     <row r="19">
@@ -460,10 +460,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>96.77936507936505</v>
+        <v>96.782364217543758</v>
       </c>
       <c r="F19" s="0">
-        <v>94.757857142857162</v>
+        <v>94.760856281035828</v>
       </c>
     </row>
     <row r="20">
@@ -480,10 +480,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>93.32617529880477</v>
+        <v>93.329174436983493</v>
       </c>
       <c r="F20" s="0">
-        <v>98.945737051792818</v>
+        <v>98.948736189971498</v>
       </c>
     </row>
     <row r="21">
@@ -500,10 +500,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>100.01992063492062</v>
+        <v>100.02291287852879</v>
       </c>
       <c r="F21" s="0">
-        <v>98.183730158730157</v>
+        <v>98.186722402338319</v>
       </c>
     </row>
     <row r="22">
@@ -520,10 +520,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>96.148650793650759</v>
+        <v>96.151629248117914</v>
       </c>
       <c r="F22" s="0">
-        <v>98.287857142857106</v>
+        <v>98.290835597324246</v>
       </c>
     </row>
     <row r="23">
@@ -540,10 +540,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>94.464820717131474</v>
+        <v>94.467778487886989</v>
       </c>
       <c r="F23" s="0">
-        <v>98.862788844621505</v>
+        <v>98.865746615377034</v>
       </c>
     </row>
     <row r="24">
@@ -560,10 +560,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>94.121984126984145</v>
+        <v>94.124879846604955</v>
       </c>
       <c r="F24" s="0">
-        <v>99.638769841269848</v>
+        <v>99.641665560890644</v>
       </c>
     </row>
     <row r="25">
@@ -580,10 +580,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>93.531912350597622</v>
+        <v>93.534718440801555</v>
       </c>
       <c r="F25" s="0">
-        <v>99.282071713147388</v>
+        <v>99.284877803351378</v>
       </c>
     </row>
     <row r="26">
@@ -600,10 +600,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>97.997142857142876</v>
+        <v>97.999831739647902</v>
       </c>
       <c r="F26" s="0">
-        <v>99.023571428571444</v>
+        <v>99.02626031107647</v>
       </c>
     </row>
     <row r="27">
@@ -620,10 +620,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>100.39478087649402</v>
+        <v>100.397324973018</v>
       </c>
       <c r="F27" s="0">
-        <v>99.07856573705179</v>
+        <v>99.08110983357578</v>
       </c>
     </row>
     <row r="28">
@@ -640,10 +640,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>98.627091633466151</v>
+        <v>98.629463365726977</v>
       </c>
       <c r="F28" s="0">
-        <v>99.08689243027888</v>
+        <v>99.089264162539706</v>
       </c>
     </row>
     <row r="29">
@@ -660,10 +660,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>96.888366533864541</v>
+        <v>96.890538323580145</v>
       </c>
       <c r="F29" s="0">
-        <v>98.760916334661346</v>
+        <v>98.763088124376949</v>
       </c>
     </row>
     <row r="30">
@@ -680,10 +680,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>97.192828685258974</v>
+        <v>97.194517855037759</v>
       </c>
       <c r="F30" s="0">
-        <v>98.296693227091637</v>
+        <v>98.298382396870451</v>
       </c>
     </row>
   </sheetData>
